--- a/buttons.xlsx
+++ b/buttons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwin\Documents\GitHub\HP35boy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36144CE9-40F7-4D64-BEEC-54E4B59050BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5512E3-07A6-4AA8-BEEA-8BCE2B2B1596}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{CF5B60D4-501F-4C04-AB93-C655B1114980}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="75">
   <si>
     <t>{</t>
   </si>
@@ -220,19 +220,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>XEXPY</t>
-  </si>
-  <si>
-    <t>xlarge</t>
   </si>
   <si>
     <t>code</t>
@@ -650,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65EF245-3E92-4C90-ABDE-36394C86459D}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="C1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA2:AA36"/>
+      <selection activeCell="AA2" sqref="AA2:AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -678,51 +666,45 @@
     <col min="27" max="27" width="32.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
+    <row r="1" spans="3:27" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +749,7 @@
         <v>2,</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -782,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
         <v>22</v>
@@ -799,10 +781,7 @@
         <v>{0,14,0,12,{34,6,40,2,}},//CLR</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -831,23 +810,23 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L36" si="1">INDEX(D:D,MATCH(T3,S:S,0))</f>
+        <f>INDEX(D:D,MATCH(T3,S:S,0))</f>
         <v>0,</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M36" si="2">INDEX(D:D,MATCH(U3,S:S,0))</f>
+        <f>INDEX(D:D,MATCH(U3,S:S,0))</f>
         <v>46,</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N36" si="3">INDEX(D:D,MATCH(V3,S:S,0))</f>
+        <f>INDEX(D:D,MATCH(V3,S:S,0))</f>
         <v>8,</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O36" si="4">INDEX(D:D,MATCH(W3,S:S,0))</f>
+        <f>INDEX(D:D,MATCH(W3,S:S,0))</f>
         <v>42,</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
@@ -871,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X36" si="5">D3</f>
+        <f t="shared" ref="X3:X36" si="1">D3</f>
         <v>40,</v>
       </c>
       <c r="AA3" t="str">
@@ -879,10 +858,7 @@
         <v>{40,28,0,12,{0,46,8,42,}},//TAN</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -911,23 +887,23 @@
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T4,S:S,0))</f>
         <v>40,</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U4,S:S,0))</f>
         <v>14,</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V4,S:S,0))</f>
         <v>56,</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W4,S:S,0))</f>
         <v>10,</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
@@ -945,13 +921,13 @@
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8,</v>
       </c>
       <c r="AA4" t="str">
@@ -959,10 +935,7 @@
         <v>{8,42,0,12,{40,14,56,10,}},//RCL</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -991,23 +964,23 @@
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T5,S:S,0))</f>
         <v>8,</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U5,S:S,0))</f>
         <v>62,</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V5,S:S,0))</f>
         <v>50,</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W5,S:S,0))</f>
         <v>58,</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
@@ -1031,7 +1004,7 @@
         <v>28</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>56,</v>
       </c>
       <c r="AA5" t="str">
@@ -1039,10 +1012,7 @@
         <v>{56,56,0,12,{8,62,50,58,}},//CLX</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1071,23 +1041,23 @@
         <v>0</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T6,S:S,0))</f>
         <v>56,</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U6,S:S,0))</f>
         <v>54,</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V6,S:S,0))</f>
         <v>18,</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W6,S:S,0))</f>
         <v>51,</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
@@ -1099,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
         <v>51</v>
@@ -1111,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>50,</v>
       </c>
       <c r="AA6" t="str">
@@ -1119,10 +1089,7 @@
         <v>{50,70,0,16,{56,54,18,51,}},//9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -1151,23 +1118,23 @@
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T7,S:S,0))</f>
         <v>50,</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U7,S:S,0))</f>
         <v>22,</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V7,S:S,0))</f>
         <v>26,</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W7,S:S,0))</f>
         <v>19,</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
         <v>2</v>
@@ -1191,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>18,</v>
       </c>
       <c r="AA7" t="str">
@@ -1199,10 +1166,7 @@
         <v>{18,84,0,16,{50,22,26,19,}},//6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -1231,23 +1195,23 @@
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T8,S:S,0))</f>
         <v>18,</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U8,S:S,0))</f>
         <v>30,</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V8,S:S,0))</f>
         <v>34,</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W8,S:S,0))</f>
         <v>27,</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
         <v>2</v>
@@ -1262,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s">
         <v>24</v>
@@ -1271,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>26,</v>
       </c>
       <c r="AA8" t="str">
@@ -1279,10 +1243,7 @@
         <v>{26,98,0,16,{18,30,34,27,}},//3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -1311,23 +1272,23 @@
         <v>0</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T9,S:S,0))</f>
         <v>26,</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U9,S:S,0))</f>
         <v>38,</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V9,S:S,0))</f>
         <v>0,</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W9,S:S,0))</f>
         <v>35,</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
         <v>2</v>
@@ -1348,10 +1309,10 @@
         <v>57</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>34,</v>
       </c>
       <c r="AA9" t="str">
@@ -1359,10 +1320,7 @@
         <v>{34,112,0,16,{26,38,0,35,}},//PI</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T10,S:S,0))</f>
         <v>35,</v>
       </c>
       <c r="M10" t="str">
@@ -1399,15 +1357,15 @@
         <v>0,</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V10,S:S,0))</f>
         <v>42,</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W10,S:S,0))</f>
         <v>3,</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
         <v>2</v>
@@ -1419,7 +1377,7 @@
         <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s">
         <v>57</v>
@@ -1431,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2,</v>
       </c>
       <c r="AA10" t="str">
@@ -1439,10 +1397,7 @@
         <v>{2,14,13,12,{35,0,42,3,}},//eX</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -1471,23 +1426,23 @@
         <v>0</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T11,S:S,0))</f>
         <v>2,</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U11,S:S,0))</f>
         <v>40,</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V11,S:S,0))</f>
         <v>10,</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W11,S:S,0))</f>
         <v>43,</v>
       </c>
       <c r="P11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
         <v>2</v>
@@ -1511,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>42,</v>
       </c>
       <c r="AA11" t="str">
@@ -1519,10 +1474,7 @@
         <v>{42,28,13,12,{2,40,10,43,}},//COS</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -1551,23 +1503,23 @@
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T12,S:S,0))</f>
         <v>42,</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U12,S:S,0))</f>
         <v>8,</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V12,S:S,0))</f>
         <v>58,</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W12,S:S,0))</f>
         <v>11,</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q12" t="s">
         <v>2</v>
@@ -1591,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10,</v>
       </c>
       <c r="AA12" t="str">
@@ -1599,10 +1551,7 @@
         <v>{10,42,13,12,{42,8,58,11,}},//STO</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -1631,23 +1580,23 @@
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T13,S:S,0))</f>
         <v>10,</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U13,S:S,0))</f>
         <v>56,</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V13,S:S,0))</f>
         <v>51,</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W13,S:S,0))</f>
         <v>59,</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
         <v>2</v>
@@ -1671,7 +1620,7 @@
         <v>26</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>58,</v>
       </c>
       <c r="AA13" t="str">
@@ -1679,10 +1628,7 @@
         <v>{58,56,13,12,{10,56,51,59,}},//EEX</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1711,23 +1657,23 @@
         <v>0</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T14,S:S,0))</f>
         <v>58,</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U14,S:S,0))</f>
         <v>50,</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V14,S:S,0))</f>
         <v>19,</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W14,S:S,0))</f>
         <v>52,</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
         <v>2</v>
@@ -1751,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>51,</v>
       </c>
       <c r="AA14" t="str">
@@ -1759,10 +1705,7 @@
         <v>{51,70,17,16,{58,50,19,52,}},//8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -1791,23 +1734,23 @@
         <v>0</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T15,S:S,0))</f>
         <v>51,</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U15,S:S,0))</f>
         <v>18,</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V15,S:S,0))</f>
         <v>27,</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W15,S:S,0))</f>
         <v>20,</v>
       </c>
       <c r="P15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
         <v>2</v>
@@ -1831,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>19,</v>
       </c>
       <c r="AA15" t="str">
@@ -1839,10 +1782,7 @@
         <v>{19,84,17,16,{51,18,27,20,}},//5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -1871,23 +1811,23 @@
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T16,S:S,0))</f>
         <v>19,</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U16,S:S,0))</f>
         <v>26,</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V16,S:S,0))</f>
         <v>35,</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W16,S:S,0))</f>
         <v>28,</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
         <v>2</v>
@@ -1905,13 +1845,13 @@
         <v>3</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>27,</v>
       </c>
       <c r="AA16" t="str">
@@ -1919,10 +1859,7 @@
         <v>{27,98,17,16,{19,26,35,28,}},//2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1951,23 +1888,23 @@
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T17,S:S,0))</f>
         <v>27,</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U17,S:S,0))</f>
         <v>34,</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>3,</v>
+        <f>INDEX(D:D,MATCH(V17,S:S,0))</f>
+        <v>2,</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W17,S:S,0))</f>
         <v>36,</v>
       </c>
       <c r="P17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
@@ -1976,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -1985,24 +1922,21 @@
         <v>24</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>35,</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>{35,112,17,16,{27,34,3,36,}},//DOT</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
+        <v>{35,112,17,16,{27,34,2,36,}},//DOT</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -2031,23 +1965,23 @@
         <v>0</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T18,S:S,0))</f>
         <v>35,</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U18,S:S,0))</f>
         <v>2,</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V18,S:S,0))</f>
         <v>43,</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W18,S:S,0))</f>
         <v>4,</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q18" t="s">
         <v>2</v>
@@ -2059,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>43</v>
@@ -2071,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3,</v>
       </c>
       <c r="AA18" t="str">
@@ -2079,10 +2013,7 @@
         <v>{3,14,26,12,{35,2,43,4,}},//ln</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -2111,23 +2042,23 @@
         <v>0</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T19,S:S,0))</f>
         <v>3,</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U19,S:S,0))</f>
         <v>42,</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V19,S:S,0))</f>
         <v>11,</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W19,S:S,0))</f>
         <v>44,</v>
       </c>
       <c r="P19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q19" t="s">
         <v>2</v>
@@ -2148,10 +2079,10 @@
         <v>32</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>43,</v>
       </c>
       <c r="AA19" t="str">
@@ -2159,10 +2090,7 @@
         <v>{43,28,26,12,{3,42,11,44,}},//SIN</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -2191,23 +2119,23 @@
         <v>0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T20,S:S,0))</f>
         <v>43,</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U20,S:S,0))</f>
         <v>10,</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v>62,</v>
+        <f>INDEX(D:D,MATCH(V20,S:S,0))</f>
+        <v>59,</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W20,S:S,0))</f>
         <v>12,</v>
       </c>
       <c r="P20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
         <v>2</v>
@@ -2225,24 +2153,21 @@
         <v>34</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>11,</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>{11,42,26,12,{43,10,62,12,}},//RV</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
+        <v>{11,42,26,12,{43,10,59,12,}},//RV</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -2271,23 +2196,23 @@
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T21,S:S,0))</f>
         <v>11,</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U21,S:S,0))</f>
         <v>58,</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>52,</v>
+        <f>INDEX(D:D,MATCH(V21,S:S,0))</f>
+        <v>51,</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W21,S:S,0))</f>
         <v>62,</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q21" t="s">
         <v>2</v>
@@ -2305,24 +2230,21 @@
         <v>28</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>59,</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="0"/>
-        <v>{59,56,26,12,{11,58,52,62,}},//CHS</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
+        <v>{59,56,26,12,{11,58,51,62,}},//CHS</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -2351,23 +2273,23 @@
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T22,S:S,0))</f>
         <v>62,</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U22,S:S,0))</f>
         <v>51,</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V22,S:S,0))</f>
         <v>20,</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W22,S:S,0))</f>
         <v>54,</v>
       </c>
       <c r="P22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q22" t="s">
         <v>2</v>
@@ -2391,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>52,</v>
       </c>
       <c r="AA22" t="str">
@@ -2399,10 +2321,7 @@
         <v>{52,70,34,16,{62,51,20,54,}},//7</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -2431,23 +2350,23 @@
         <v>0</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T23,S:S,0))</f>
         <v>52,</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U23,S:S,0))</f>
         <v>19,</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V23,S:S,0))</f>
         <v>28,</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W23,S:S,0))</f>
         <v>22,</v>
       </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q23" t="s">
         <v>2</v>
@@ -2471,7 +2390,7 @@
         <v>49</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20,</v>
       </c>
       <c r="AA23" t="str">
@@ -2479,10 +2398,7 @@
         <v>{20,84,34,16,{52,19,28,22,}},//4</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -2511,23 +2427,23 @@
         <v>0</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T24,S:S,0))</f>
         <v>20,</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U24,S:S,0))</f>
         <v>27,</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V24,S:S,0))</f>
         <v>36,</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W24,S:S,0))</f>
         <v>30,</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q24" t="s">
         <v>2</v>
@@ -2548,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>28,</v>
       </c>
       <c r="AA24" t="str">
@@ -2559,10 +2475,7 @@
         <v>{28,98,34,16,{20,27,36,30,}},//1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -2591,23 +2504,23 @@
         <v>0</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T25,S:S,0))</f>
         <v>28,</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U25,S:S,0))</f>
         <v>35,</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V25,S:S,0))</f>
         <v>4,</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W25,S:S,0))</f>
         <v>38,</v>
       </c>
       <c r="P25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q25" t="s">
         <v>2</v>
@@ -2622,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s">
         <v>39</v>
@@ -2631,7 +2544,7 @@
         <v>53</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>36,</v>
       </c>
       <c r="AA25" t="str">
@@ -2639,10 +2552,7 @@
         <v>{36,112,34,16,{28,35,4,38,}},//0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -2671,23 +2581,23 @@
         <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T26,S:S,0))</f>
         <v>36,</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U26,S:S,0))</f>
         <v>3,</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V26,S:S,0))</f>
         <v>44,</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W26,S:S,0))</f>
         <v>6,</v>
       </c>
       <c r="P26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q26" t="s">
         <v>2</v>
@@ -2708,10 +2618,10 @@
         <v>47</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>4,</v>
       </c>
       <c r="AA26" t="str">
@@ -2719,10 +2629,7 @@
         <v>{4,14,39,12,{36,3,44,6,}},//log</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -2751,23 +2658,23 @@
         <v>0</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T27,S:S,0))</f>
         <v>4,</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U27,S:S,0))</f>
         <v>43,</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V27,S:S,0))</f>
         <v>12,</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W27,S:S,0))</f>
         <v>46,</v>
       </c>
       <c r="P27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q27" t="s">
         <v>2</v>
@@ -2791,7 +2698,7 @@
         <v>45</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>44,</v>
       </c>
       <c r="AA27" t="str">
@@ -2799,10 +2706,7 @@
         <v>{44,28,39,12,{4,43,12,46,}},//ARC</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -2831,23 +2735,23 @@
         <v>0</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T28,S:S,0))</f>
         <v>44,</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U28,S:S,0))</f>
         <v>11,</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V28,S:S,0))</f>
         <v>62,</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W28,S:S,0))</f>
         <v>14,</v>
       </c>
       <c r="P28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q28" t="s">
         <v>2</v>
@@ -2871,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12,</v>
       </c>
       <c r="AA28" t="str">
@@ -2879,10 +2783,7 @@
         <v>{12,42,39,12,{44,11,62,14,}},//XTOY</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -2911,23 +2812,23 @@
         <v>0</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>12,</v>
+        <f>INDEX(D:D,MATCH(T29,S:S,0))</f>
+        <v>14,</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U29,S:S,0))</f>
         <v>59,</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V29,S:S,0))</f>
         <v>54,</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W29,S:S,0))</f>
         <v>56,</v>
       </c>
       <c r="P29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
         <v>2</v>
@@ -2939,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="T29" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="U29" t="s">
         <v>26</v>
@@ -2951,18 +2852,15 @@
         <v>59</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>62,</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="0"/>
-        <v>{62,56,39,25,{12,59,54,56,}},//ENTER</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
+        <v>{62,56,39,25,{14,59,54,56,}},//ENTER</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -2991,23 +2889,23 @@
         <v>0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T30,S:S,0))</f>
         <v>62,</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U30,S:S,0))</f>
         <v>52,</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V30,S:S,0))</f>
         <v>22,</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W30,S:S,0))</f>
         <v>50,</v>
       </c>
       <c r="P30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q30" t="s">
         <v>2</v>
@@ -3031,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>54,</v>
       </c>
       <c r="AA30" t="str">
@@ -3039,10 +2937,7 @@
         <v>{54,70,51,16,{62,52,22,50,}},//-</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -3071,23 +2966,23 @@
         <v>0</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T31,S:S,0))</f>
         <v>54,</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U31,S:S,0))</f>
         <v>20,</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V31,S:S,0))</f>
         <v>30,</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W31,S:S,0))</f>
         <v>18,</v>
       </c>
       <c r="P31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q31" t="s">
         <v>2</v>
@@ -3105,13 +3000,13 @@
         <v>4</v>
       </c>
       <c r="V31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W31">
         <v>6</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>22,</v>
       </c>
       <c r="AA31" t="str">
@@ -3119,10 +3014,7 @@
         <v>{22,84,51,16,{54,20,30,18,}},//+</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -3151,23 +3043,23 @@
         <v>0</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T32,S:S,0))</f>
         <v>22,</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U32,S:S,0))</f>
         <v>28,</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V32,S:S,0))</f>
         <v>38,</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W32,S:S,0))</f>
         <v>26,</v>
       </c>
       <c r="P32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q32" t="s">
         <v>2</v>
@@ -3176,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s">
         <v>49</v>
@@ -3191,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>30,</v>
       </c>
       <c r="AA32" t="str">
@@ -3199,10 +3091,7 @@
         <v>{30,98,51,16,{22,28,38,26,}},//M</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -3231,23 +3120,23 @@
         <v>0</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T33,S:S,0))</f>
         <v>30,</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U33,S:S,0))</f>
         <v>36,</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V33,S:S,0))</f>
         <v>6,</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W33,S:S,0))</f>
         <v>34,</v>
       </c>
       <c r="P33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q33" t="s">
         <v>2</v>
@@ -3259,19 +3148,19 @@
         <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
         <v>24</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>38,</v>
       </c>
       <c r="AA33" t="str">
@@ -3279,10 +3168,7 @@
         <v>{38,112,51,16,{30,36,6,34,}},///</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -3311,23 +3197,23 @@
         <v>0</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T34,S:S,0))</f>
         <v>38,</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U34,S:S,0))</f>
         <v>4,</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
+        <f>INDEX(D:D,MATCH(V34,S:S,0))</f>
         <v>46,</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W34,S:S,0))</f>
         <v>0,</v>
       </c>
       <c r="P34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q34" t="s">
         <v>2</v>
@@ -3336,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
         <v>53</v>
@@ -3351,7 +3237,7 @@
         <v>57</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6,</v>
       </c>
       <c r="AA34" t="str">
@@ -3359,10 +3245,7 @@
         <v>{6,14,52,12,{38,4,46,0,}},//XEXPY</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -3391,23 +3274,23 @@
         <v>0</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T35,S:S,0))</f>
         <v>6,</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U35,S:S,0))</f>
         <v>44,</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
-        <v>34,</v>
+        <f>INDEX(D:D,MATCH(V35,S:S,0))</f>
+        <v>14,</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W35,S:S,0))</f>
         <v>40,</v>
       </c>
       <c r="P35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q35" t="s">
         <v>2</v>
@@ -3419,30 +3302,27 @@
         <v>45</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="X35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>46,</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="0"/>
-        <v>{46,28,52,12,{6,44,34,40,}},//SQR</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
+        <v>{46,28,52,12,{6,44,14,40,}},//SQR</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -3471,23 +3351,23 @@
         <v>0</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX(D:D,MATCH(T36,S:S,0))</f>
         <v>46,</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="2"/>
+        <f>INDEX(D:D,MATCH(U36,S:S,0))</f>
         <v>12,</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>0,</v>
+        <f>INDEX(D:D,MATCH(V36,S:S,0))</f>
+        <v>62,</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="4"/>
+        <f>INDEX(D:D,MATCH(W36,S:S,0))</f>
         <v>8,</v>
       </c>
       <c r="P36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q36" t="s">
         <v>2</v>
@@ -3505,18 +3385,18 @@
         <v>30</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="W36" t="s">
         <v>36</v>
       </c>
       <c r="X36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>14,</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="0"/>
-        <v>{14,42,52,12,{46,12,0,8,}},//1/x</v>
+        <v>{14,42,52,12,{46,12,62,8,}},//1/x</v>
       </c>
     </row>
   </sheetData>
